--- a/markdown_generator/patents.xlsx
+++ b/markdown_generator/patents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\liamheng.github.io\markdown_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A079908-BD66-4D74-8E0E-53FADCC92A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599E7BA-F609-484A-BA9E-AE5B738FAA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="3270" windowWidth="26630" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="2930" windowWidth="26630" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,41 +88,45 @@
     <t>202111003767.6</t>
   </si>
   <si>
-    <t>刘江、东田理沙、张颖麟、章晓庆、刘鹏、杨冰、胡衍、李衡</t>
-  </si>
-  <si>
     <t>基于眼前节图像的眼病识别方法、装置、设备及存储介质</t>
   </si>
   <si>
     <t>202111024233.1</t>
   </si>
   <si>
-    <t>刘江、李衡、刘浩锋、胡衍</t>
-  </si>
-  <si>
     <t>基于高频特征的医学图像分割方法和装置</t>
   </si>
   <si>
     <t>2022105727623</t>
   </si>
   <si>
-    <t>刘江、李衡、区明阳、刘浩锋、胡衍</t>
-  </si>
-  <si>
     <t>基于特征空间多视角分析的影像分割方法和装置</t>
   </si>
   <si>
     <t>2022106344657</t>
   </si>
   <si>
-    <t>刘江、刘浩锋、李衡、胡衍</t>
-  </si>
-  <si>
     <t>基于特征一致性的眼底图像增强方法、系统、设备及介质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2022112938120</t>
+  </si>
+  <si>
+    <t>刘江,东田理沙,张颖麟,章晓庆,刘鹏,杨冰,胡衍,李衡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘江,李衡,刘浩锋,胡衍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘江,李衡,区明阳,刘浩锋,胡衍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘江,刘浩锋,李衡,胡衍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,10 +600,10 @@
     </row>
     <row r="6" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -608,15 +612,15 @@
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -625,15 +629,15 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -642,15 +646,15 @@
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -659,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
